--- a/config/Totes_les_dades_de_les_estacions.xlsx
+++ b/config/Totes_les_dades_de_les_estacions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joant\Documents\OBS-Scripts\meteo_overlay\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joant\OneDrive\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F72BFB-F60E-4ABE-B28D-0417D14E5681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAF44E2-7EC2-4081-87F7-BAFADFED1A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="882">
   <si>
     <t>ID</t>
   </si>
@@ -768,18 +768,9 @@
     <t>28.10.1995</t>
   </si>
   <si>
-    <t>UG</t>
-  </si>
-  <si>
     <t>Viladecans</t>
   </si>
   <si>
-    <t>Viladecans [UG]</t>
-  </si>
-  <si>
-    <t>29.04.1993</t>
-  </si>
-  <si>
     <t>WZ</t>
   </si>
   <si>
@@ -2665,13 +2656,25 @@
   </si>
   <si>
     <t>Comptador</t>
+  </si>
+  <si>
+    <t>YY</t>
+  </si>
+  <si>
+    <t>Viladecans [YY]</t>
+  </si>
+  <si>
+    <t>11.02.2026</t>
+  </si>
+  <si>
+    <t>Viladecans - les Filipines</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2682,6 +2685,12 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3E5871"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2721,11 +2730,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3032,7 +3042,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4872,31 +4884,31 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>248</v>
+        <v>878</v>
       </c>
       <c r="B53" t="s">
-        <v>249</v>
+        <v>881</v>
       </c>
       <c r="C53" t="s">
         <v>228</v>
       </c>
       <c r="D53" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E53" t="s">
-        <v>250</v>
-      </c>
-      <c r="F53">
-        <v>41.299280000000003</v>
+        <v>879</v>
+      </c>
+      <c r="F53" s="2">
+        <v>41.287970000000001</v>
       </c>
       <c r="G53">
-        <v>2.0378699999999998</v>
+        <v>2.04487</v>
       </c>
       <c r="H53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>251</v>
+        <v>880</v>
       </c>
       <c r="K53" t="s">
         <v>17</v>
@@ -4907,19 +4919,19 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>249</v>
+      </c>
+      <c r="B54" t="s">
+        <v>250</v>
+      </c>
+      <c r="C54" t="s">
+        <v>251</v>
+      </c>
+      <c r="D54" t="s">
+        <v>250</v>
+      </c>
+      <c r="E54" t="s">
         <v>252</v>
-      </c>
-      <c r="B54" t="s">
-        <v>253</v>
-      </c>
-      <c r="C54" t="s">
-        <v>254</v>
-      </c>
-      <c r="D54" t="s">
-        <v>253</v>
-      </c>
-      <c r="E54" t="s">
-        <v>255</v>
       </c>
       <c r="F54">
         <v>41.20187</v>
@@ -4931,7 +4943,7 @@
         <v>17</v>
       </c>
       <c r="I54" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K54" t="s">
         <v>17</v>
@@ -4942,19 +4954,19 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>254</v>
+      </c>
+      <c r="B55" t="s">
+        <v>255</v>
+      </c>
+      <c r="C55" t="s">
+        <v>251</v>
+      </c>
+      <c r="D55" t="s">
+        <v>256</v>
+      </c>
+      <c r="E55" t="s">
         <v>257</v>
-      </c>
-      <c r="B55" t="s">
-        <v>258</v>
-      </c>
-      <c r="C55" t="s">
-        <v>254</v>
-      </c>
-      <c r="D55" t="s">
-        <v>259</v>
-      </c>
-      <c r="E55" t="s">
-        <v>260</v>
       </c>
       <c r="F55">
         <v>41.341709999999999</v>
@@ -4966,7 +4978,7 @@
         <v>545</v>
       </c>
       <c r="I55" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K55" t="s">
         <v>17</v>
@@ -4977,19 +4989,19 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>259</v>
+      </c>
+      <c r="B56" t="s">
+        <v>260</v>
+      </c>
+      <c r="C56" t="s">
+        <v>251</v>
+      </c>
+      <c r="D56" t="s">
+        <v>261</v>
+      </c>
+      <c r="E56" t="s">
         <v>262</v>
-      </c>
-      <c r="B56" t="s">
-        <v>263</v>
-      </c>
-      <c r="C56" t="s">
-        <v>254</v>
-      </c>
-      <c r="D56" t="s">
-        <v>264</v>
-      </c>
-      <c r="E56" t="s">
-        <v>265</v>
       </c>
       <c r="F56">
         <v>41.215530000000001</v>
@@ -5001,7 +5013,7 @@
         <v>59</v>
       </c>
       <c r="I56" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K56" t="s">
         <v>17</v>
@@ -5012,19 +5024,19 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>264</v>
+      </c>
+      <c r="B57" t="s">
+        <v>265</v>
+      </c>
+      <c r="C57" t="s">
+        <v>251</v>
+      </c>
+      <c r="D57" t="s">
+        <v>266</v>
+      </c>
+      <c r="E57" t="s">
         <v>267</v>
-      </c>
-      <c r="B57" t="s">
-        <v>268</v>
-      </c>
-      <c r="C57" t="s">
-        <v>254</v>
-      </c>
-      <c r="D57" t="s">
-        <v>269</v>
-      </c>
-      <c r="E57" t="s">
-        <v>270</v>
       </c>
       <c r="F57">
         <v>41.271509999999999</v>
@@ -5036,7 +5048,7 @@
         <v>185</v>
       </c>
       <c r="I57" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K57" t="s">
         <v>17</v>
@@ -5047,19 +5059,19 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>269</v>
+      </c>
+      <c r="B58" t="s">
+        <v>270</v>
+      </c>
+      <c r="C58" t="s">
+        <v>271</v>
+      </c>
+      <c r="D58" t="s">
         <v>272</v>
       </c>
-      <c r="B58" t="s">
+      <c r="E58" t="s">
         <v>273</v>
-      </c>
-      <c r="C58" t="s">
-        <v>274</v>
-      </c>
-      <c r="D58" t="s">
-        <v>275</v>
-      </c>
-      <c r="E58" t="s">
-        <v>276</v>
       </c>
       <c r="F58">
         <v>41.452150000000003</v>
@@ -5071,7 +5083,7 @@
         <v>42</v>
       </c>
       <c r="I58" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K58" t="s">
         <v>17</v>
@@ -5082,19 +5094,19 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>275</v>
+      </c>
+      <c r="B59" t="s">
+        <v>276</v>
+      </c>
+      <c r="C59" t="s">
+        <v>271</v>
+      </c>
+      <c r="D59" t="s">
+        <v>277</v>
+      </c>
+      <c r="E59" t="s">
         <v>278</v>
-      </c>
-      <c r="B59" t="s">
-        <v>279</v>
-      </c>
-      <c r="C59" t="s">
-        <v>274</v>
-      </c>
-      <c r="D59" t="s">
-        <v>280</v>
-      </c>
-      <c r="E59" t="s">
-        <v>281</v>
       </c>
       <c r="F59">
         <v>41.418640000000003</v>
@@ -5106,7 +5118,7 @@
         <v>411</v>
       </c>
       <c r="I59" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K59" t="s">
         <v>17</v>
@@ -5117,19 +5129,19 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B60" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C60" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D60" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E60" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F60">
         <v>41.383899999999997</v>
@@ -5141,7 +5153,7 @@
         <v>33</v>
       </c>
       <c r="I60" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="K60" t="s">
         <v>17</v>
@@ -5152,19 +5164,19 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B61" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C61" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D61" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E61" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F61">
         <v>41.379190000000001</v>
@@ -5176,7 +5188,7 @@
         <v>79</v>
       </c>
       <c r="I61" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K61" t="s">
         <v>17</v>
@@ -5187,19 +5199,19 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>288</v>
+      </c>
+      <c r="B62" t="s">
+        <v>289</v>
+      </c>
+      <c r="C62" t="s">
+        <v>290</v>
+      </c>
+      <c r="D62" t="s">
         <v>291</v>
       </c>
-      <c r="B62" t="s">
+      <c r="E62" t="s">
         <v>292</v>
-      </c>
-      <c r="C62" t="s">
-        <v>293</v>
-      </c>
-      <c r="D62" t="s">
-        <v>294</v>
-      </c>
-      <c r="E62" t="s">
-        <v>295</v>
       </c>
       <c r="F62">
         <v>42.10736</v>
@@ -5211,7 +5223,7 @@
         <v>1167</v>
       </c>
       <c r="I62" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K62" t="s">
         <v>17</v>
@@ -5222,19 +5234,19 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>294</v>
+      </c>
+      <c r="B63" t="s">
+        <v>295</v>
+      </c>
+      <c r="C63" t="s">
+        <v>290</v>
+      </c>
+      <c r="D63" t="s">
+        <v>296</v>
+      </c>
+      <c r="E63" t="s">
         <v>297</v>
-      </c>
-      <c r="B63" t="s">
-        <v>298</v>
-      </c>
-      <c r="C63" t="s">
-        <v>293</v>
-      </c>
-      <c r="D63" t="s">
-        <v>299</v>
-      </c>
-      <c r="E63" t="s">
-        <v>300</v>
       </c>
       <c r="F63">
         <v>42.259450000000001</v>
@@ -5246,7 +5258,7 @@
         <v>943</v>
       </c>
       <c r="I63" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="K63" t="s">
         <v>17</v>
@@ -5257,19 +5269,19 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B64" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C64" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D64" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E64" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F64">
         <v>42.264769999999999</v>
@@ -5281,7 +5293,7 @@
         <v>1386</v>
       </c>
       <c r="I64" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="K64" t="s">
         <v>17</v>
@@ -5292,19 +5304,19 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B65" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C65" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D65" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E65" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F65">
         <v>42.234139999999996</v>
@@ -5316,7 +5328,7 @@
         <v>788</v>
       </c>
       <c r="I65" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K65" t="s">
         <v>17</v>
@@ -5327,19 +5339,19 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>307</v>
+      </c>
+      <c r="B66" t="s">
+        <v>308</v>
+      </c>
+      <c r="C66" t="s">
+        <v>290</v>
+      </c>
+      <c r="D66" t="s">
+        <v>309</v>
+      </c>
+      <c r="E66" t="s">
         <v>310</v>
-      </c>
-      <c r="B66" t="s">
-        <v>311</v>
-      </c>
-      <c r="C66" t="s">
-        <v>293</v>
-      </c>
-      <c r="D66" t="s">
-        <v>312</v>
-      </c>
-      <c r="E66" t="s">
-        <v>313</v>
       </c>
       <c r="F66">
         <v>42.08032</v>
@@ -5351,7 +5363,7 @@
         <v>873</v>
       </c>
       <c r="I66" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="K66" t="s">
         <v>17</v>
@@ -5362,19 +5374,19 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>312</v>
+      </c>
+      <c r="B67" t="s">
+        <v>313</v>
+      </c>
+      <c r="C67" t="s">
+        <v>314</v>
+      </c>
+      <c r="D67" t="s">
         <v>315</v>
       </c>
-      <c r="B67" t="s">
+      <c r="E67" t="s">
         <v>316</v>
-      </c>
-      <c r="C67" t="s">
-        <v>317</v>
-      </c>
-      <c r="D67" t="s">
-        <v>318</v>
-      </c>
-      <c r="E67" t="s">
-        <v>319</v>
       </c>
       <c r="F67">
         <v>42.322110000000002</v>
@@ -5386,7 +5398,7 @@
         <v>2478</v>
       </c>
       <c r="I67" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K67" t="s">
         <v>17</v>
@@ -5397,19 +5409,19 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>318</v>
+      </c>
+      <c r="B68" t="s">
+        <v>319</v>
+      </c>
+      <c r="C68" t="s">
+        <v>314</v>
+      </c>
+      <c r="D68" t="s">
+        <v>320</v>
+      </c>
+      <c r="E68" t="s">
         <v>321</v>
-      </c>
-      <c r="B68" t="s">
-        <v>322</v>
-      </c>
-      <c r="C68" t="s">
-        <v>317</v>
-      </c>
-      <c r="D68" t="s">
-        <v>323</v>
-      </c>
-      <c r="E68" t="s">
-        <v>324</v>
       </c>
       <c r="F68">
         <v>42.386049999999997</v>
@@ -5421,7 +5433,7 @@
         <v>1097</v>
       </c>
       <c r="I68" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="K68" t="s">
         <v>17</v>
@@ -5432,19 +5444,19 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>323</v>
+      </c>
+      <c r="B69" t="s">
+        <v>324</v>
+      </c>
+      <c r="C69" t="s">
+        <v>314</v>
+      </c>
+      <c r="D69" t="s">
+        <v>325</v>
+      </c>
+      <c r="E69" t="s">
         <v>326</v>
-      </c>
-      <c r="B69" t="s">
-        <v>327</v>
-      </c>
-      <c r="C69" t="s">
-        <v>317</v>
-      </c>
-      <c r="D69" t="s">
-        <v>328</v>
-      </c>
-      <c r="E69" t="s">
-        <v>329</v>
       </c>
       <c r="F69">
         <v>42.466050000000003</v>
@@ -5456,7 +5468,7 @@
         <v>2230</v>
       </c>
       <c r="I69" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K69" t="s">
         <v>17</v>
@@ -5467,19 +5479,19 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>328</v>
+      </c>
+      <c r="B70" t="s">
+        <v>329</v>
+      </c>
+      <c r="C70" t="s">
+        <v>314</v>
+      </c>
+      <c r="D70" t="s">
+        <v>330</v>
+      </c>
+      <c r="E70" t="s">
         <v>331</v>
-      </c>
-      <c r="B70" t="s">
-        <v>332</v>
-      </c>
-      <c r="C70" t="s">
-        <v>317</v>
-      </c>
-      <c r="D70" t="s">
-        <v>333</v>
-      </c>
-      <c r="E70" t="s">
-        <v>334</v>
       </c>
       <c r="F70">
         <v>42.292650000000002</v>
@@ -5491,7 +5503,7 @@
         <v>2143</v>
       </c>
       <c r="I70" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="K70" t="s">
         <v>17</v>
@@ -5502,19 +5514,19 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B71" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C71" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D71" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E71" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F71">
         <v>42.440130000000003</v>
@@ -5526,7 +5538,7 @@
         <v>1213</v>
       </c>
       <c r="I71" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K71" t="s">
         <v>17</v>
@@ -5537,19 +5549,19 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>337</v>
+      </c>
+      <c r="B72" t="s">
+        <v>338</v>
+      </c>
+      <c r="C72" t="s">
+        <v>339</v>
+      </c>
+      <c r="D72" t="s">
+        <v>338</v>
+      </c>
+      <c r="E72" t="s">
         <v>340</v>
-      </c>
-      <c r="B72" t="s">
-        <v>341</v>
-      </c>
-      <c r="C72" t="s">
-        <v>342</v>
-      </c>
-      <c r="D72" t="s">
-        <v>341</v>
-      </c>
-      <c r="E72" t="s">
-        <v>343</v>
       </c>
       <c r="F72">
         <v>41.442369999999997</v>
@@ -5561,7 +5573,7 @@
         <v>438</v>
       </c>
       <c r="I72" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="K72" t="s">
         <v>17</v>
@@ -5572,19 +5584,19 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>342</v>
+      </c>
+      <c r="B73" t="s">
+        <v>343</v>
+      </c>
+      <c r="C73" t="s">
+        <v>339</v>
+      </c>
+      <c r="D73" t="s">
+        <v>344</v>
+      </c>
+      <c r="E73" t="s">
         <v>345</v>
-      </c>
-      <c r="B73" t="s">
-        <v>346</v>
-      </c>
-      <c r="C73" t="s">
-        <v>342</v>
-      </c>
-      <c r="D73" t="s">
-        <v>347</v>
-      </c>
-      <c r="E73" t="s">
-        <v>348</v>
       </c>
       <c r="F73">
         <v>41.392409999999998</v>
@@ -5596,7 +5608,7 @@
         <v>446</v>
       </c>
       <c r="I73" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="K73" t="s">
         <v>17</v>
@@ -5607,19 +5619,19 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B74" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C74" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D74" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E74" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F74">
         <v>41.528790000000001</v>
@@ -5631,7 +5643,7 @@
         <v>709</v>
       </c>
       <c r="I74" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K74" t="s">
         <v>17</v>
@@ -5642,19 +5654,19 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>351</v>
+      </c>
+      <c r="B75" t="s">
+        <v>352</v>
+      </c>
+      <c r="C75" t="s">
+        <v>353</v>
+      </c>
+      <c r="D75" t="s">
+        <v>352</v>
+      </c>
+      <c r="E75" t="s">
         <v>354</v>
-      </c>
-      <c r="B75" t="s">
-        <v>355</v>
-      </c>
-      <c r="C75" t="s">
-        <v>356</v>
-      </c>
-      <c r="D75" t="s">
-        <v>355</v>
-      </c>
-      <c r="E75" t="s">
-        <v>357</v>
       </c>
       <c r="F75">
         <v>41.28801</v>
@@ -5666,7 +5678,7 @@
         <v>148</v>
       </c>
       <c r="I75" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K75" t="s">
         <v>17</v>
@@ -5677,19 +5689,19 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
+        <v>356</v>
+      </c>
+      <c r="B76" t="s">
+        <v>357</v>
+      </c>
+      <c r="C76" t="s">
+        <v>353</v>
+      </c>
+      <c r="D76" t="s">
+        <v>358</v>
+      </c>
+      <c r="E76" t="s">
         <v>359</v>
-      </c>
-      <c r="B76" t="s">
-        <v>360</v>
-      </c>
-      <c r="C76" t="s">
-        <v>356</v>
-      </c>
-      <c r="D76" t="s">
-        <v>361</v>
-      </c>
-      <c r="E76" t="s">
-        <v>362</v>
       </c>
       <c r="F76">
         <v>41.27861</v>
@@ -5701,7 +5713,7 @@
         <v>161</v>
       </c>
       <c r="I76" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="K76" t="s">
         <v>17</v>
@@ -5712,19 +5724,19 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B77" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C77" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D77" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E77" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F77">
         <v>41.235750000000003</v>
@@ -5736,7 +5748,7 @@
         <v>31</v>
       </c>
       <c r="I77" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="K77" t="s">
         <v>17</v>
@@ -5747,19 +5759,19 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>365</v>
+      </c>
+      <c r="B78" t="s">
+        <v>366</v>
+      </c>
+      <c r="C78" t="s">
+        <v>367</v>
+      </c>
+      <c r="D78" t="s">
         <v>368</v>
       </c>
-      <c r="B78" t="s">
+      <c r="E78" t="s">
         <v>369</v>
-      </c>
-      <c r="C78" t="s">
-        <v>370</v>
-      </c>
-      <c r="D78" t="s">
-        <v>371</v>
-      </c>
-      <c r="E78" t="s">
-        <v>372</v>
       </c>
       <c r="F78">
         <v>41.359909999999999</v>
@@ -5771,7 +5783,7 @@
         <v>505</v>
       </c>
       <c r="I78" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="K78" t="s">
         <v>17</v>
@@ -5782,19 +5794,19 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>371</v>
+      </c>
+      <c r="B79" t="s">
+        <v>372</v>
+      </c>
+      <c r="C79" t="s">
+        <v>367</v>
+      </c>
+      <c r="D79" t="s">
+        <v>373</v>
+      </c>
+      <c r="E79" t="s">
         <v>374</v>
-      </c>
-      <c r="B79" t="s">
-        <v>375</v>
-      </c>
-      <c r="C79" t="s">
-        <v>370</v>
-      </c>
-      <c r="D79" t="s">
-        <v>376</v>
-      </c>
-      <c r="E79" t="s">
-        <v>377</v>
       </c>
       <c r="F79">
         <v>41.511240000000001</v>
@@ -5806,7 +5818,7 @@
         <v>283</v>
       </c>
       <c r="I79" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="K79" t="s">
         <v>17</v>
@@ -5817,19 +5829,19 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>376</v>
+      </c>
+      <c r="B80" t="s">
+        <v>377</v>
+      </c>
+      <c r="C80" t="s">
+        <v>378</v>
+      </c>
+      <c r="D80" t="s">
         <v>379</v>
       </c>
-      <c r="B80" t="s">
+      <c r="E80" t="s">
         <v>380</v>
-      </c>
-      <c r="C80" t="s">
-        <v>381</v>
-      </c>
-      <c r="D80" t="s">
-        <v>382</v>
-      </c>
-      <c r="E80" t="s">
-        <v>383</v>
       </c>
       <c r="F80">
         <v>42.145569999999999</v>
@@ -5841,7 +5853,7 @@
         <v>461</v>
       </c>
       <c r="I80" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K80" t="s">
         <v>17</v>
@@ -5852,19 +5864,19 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B81" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C81" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D81" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E81" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F81">
         <v>42.188130000000001</v>
@@ -5876,7 +5888,7 @@
         <v>433</v>
       </c>
       <c r="I81" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="K81" t="s">
         <v>17</v>
@@ -5887,19 +5899,19 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>386</v>
+      </c>
+      <c r="B82" t="s">
+        <v>387</v>
+      </c>
+      <c r="C82" t="s">
+        <v>388</v>
+      </c>
+      <c r="D82" t="s">
+        <v>387</v>
+      </c>
+      <c r="E82" t="s">
         <v>389</v>
-      </c>
-      <c r="B82" t="s">
-        <v>390</v>
-      </c>
-      <c r="C82" t="s">
-        <v>391</v>
-      </c>
-      <c r="D82" t="s">
-        <v>390</v>
-      </c>
-      <c r="E82" t="s">
-        <v>392</v>
       </c>
       <c r="F82">
         <v>41.874490000000002</v>
@@ -5911,7 +5923,7 @@
         <v>171</v>
       </c>
       <c r="I82" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K82" t="s">
         <v>17</v>
@@ -5922,19 +5934,19 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B83" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C83" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D83" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E83" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F83">
         <v>41.914610000000003</v>
@@ -5946,7 +5958,7 @@
         <v>97</v>
       </c>
       <c r="I83" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="K83" t="s">
         <v>17</v>
@@ -5957,19 +5969,19 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B84" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C84" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D84" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E84" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F84">
         <v>41.982230000000001</v>
@@ -5981,7 +5993,7 @@
         <v>72</v>
       </c>
       <c r="I84" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="K84" t="s">
         <v>17</v>
@@ -5992,19 +6004,19 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>399</v>
+      </c>
+      <c r="B85" t="s">
+        <v>400</v>
+      </c>
+      <c r="C85" t="s">
+        <v>401</v>
+      </c>
+      <c r="D85" t="s">
+        <v>400</v>
+      </c>
+      <c r="E85" t="s">
         <v>402</v>
-      </c>
-      <c r="B85" t="s">
-        <v>403</v>
-      </c>
-      <c r="C85" t="s">
-        <v>404</v>
-      </c>
-      <c r="D85" t="s">
-        <v>403</v>
-      </c>
-      <c r="E85" t="s">
-        <v>405</v>
       </c>
       <c r="F85">
         <v>42.039470000000001</v>
@@ -6016,7 +6028,7 @@
         <v>774</v>
       </c>
       <c r="I85" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="K85" t="s">
         <v>17</v>
@@ -6027,19 +6039,19 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
+        <v>404</v>
+      </c>
+      <c r="B86" t="s">
+        <v>405</v>
+      </c>
+      <c r="C86" t="s">
+        <v>406</v>
+      </c>
+      <c r="D86" t="s">
+        <v>405</v>
+      </c>
+      <c r="E86" t="s">
         <v>407</v>
-      </c>
-      <c r="B86" t="s">
-        <v>408</v>
-      </c>
-      <c r="C86" t="s">
-        <v>409</v>
-      </c>
-      <c r="D86" t="s">
-        <v>408</v>
-      </c>
-      <c r="E86" t="s">
-        <v>410</v>
       </c>
       <c r="F86">
         <v>41.51773</v>
@@ -6051,7 +6063,7 @@
         <v>81</v>
       </c>
       <c r="I86" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="K86" t="s">
         <v>17</v>
@@ -6062,19 +6074,19 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>409</v>
+      </c>
+      <c r="B87" t="s">
+        <v>410</v>
+      </c>
+      <c r="C87" t="s">
+        <v>406</v>
+      </c>
+      <c r="D87" t="s">
+        <v>411</v>
+      </c>
+      <c r="E87" t="s">
         <v>412</v>
-      </c>
-      <c r="B87" t="s">
-        <v>413</v>
-      </c>
-      <c r="C87" t="s">
-        <v>409</v>
-      </c>
-      <c r="D87" t="s">
-        <v>414</v>
-      </c>
-      <c r="E87" t="s">
-        <v>415</v>
       </c>
       <c r="F87">
         <v>41.619909999999997</v>
@@ -6086,7 +6098,7 @@
         <v>460</v>
       </c>
       <c r="I87" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="K87" t="s">
         <v>17</v>
@@ -6097,19 +6109,19 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B88" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C88" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D88" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E88" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F88">
         <v>41.647069999999999</v>
@@ -6121,7 +6133,7 @@
         <v>2</v>
       </c>
       <c r="I88" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="K88" t="s">
         <v>17</v>
@@ -6132,19 +6144,19 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B89" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C89" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D89" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E89" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F89">
         <v>41.545169999999999</v>
@@ -6156,7 +6168,7 @@
         <v>87</v>
       </c>
       <c r="I89" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="K89" t="s">
         <v>17</v>
@@ -6167,19 +6179,19 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
+        <v>422</v>
+      </c>
+      <c r="B90" t="s">
+        <v>423</v>
+      </c>
+      <c r="C90" t="s">
+        <v>424</v>
+      </c>
+      <c r="D90" t="s">
         <v>425</v>
       </c>
-      <c r="B90" t="s">
+      <c r="E90" t="s">
         <v>426</v>
-      </c>
-      <c r="C90" t="s">
-        <v>427</v>
-      </c>
-      <c r="D90" t="s">
-        <v>428</v>
-      </c>
-      <c r="E90" t="s">
-        <v>429</v>
       </c>
       <c r="F90">
         <v>40.557859999999998</v>
@@ -6191,7 +6203,7 @@
         <v>24</v>
       </c>
       <c r="I90" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="K90" t="s">
         <v>17</v>
@@ -6202,19 +6214,19 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B91" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C91" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D91" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E91" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F91">
         <v>40.70776</v>
@@ -6226,7 +6238,7 @@
         <v>3</v>
       </c>
       <c r="I91" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="K91" t="s">
         <v>17</v>
@@ -6237,19 +6249,19 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
+        <v>432</v>
+      </c>
+      <c r="B92" t="s">
+        <v>433</v>
+      </c>
+      <c r="C92" t="s">
+        <v>424</v>
+      </c>
+      <c r="D92" t="s">
+        <v>434</v>
+      </c>
+      <c r="E92" t="s">
         <v>435</v>
-      </c>
-      <c r="B92" t="s">
-        <v>436</v>
-      </c>
-      <c r="C92" t="s">
-        <v>427</v>
-      </c>
-      <c r="D92" t="s">
-        <v>437</v>
-      </c>
-      <c r="E92" t="s">
-        <v>438</v>
       </c>
       <c r="F92">
         <v>40.627249999999997</v>
@@ -6261,7 +6273,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K92" t="s">
         <v>17</v>
@@ -6272,19 +6284,19 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B93" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C93" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D93" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E93" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F93">
         <v>40.718249999999998</v>
@@ -6296,7 +6308,7 @@
         <v>240</v>
       </c>
       <c r="I93" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="K93" t="s">
         <v>17</v>
@@ -6307,19 +6319,19 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
+        <v>441</v>
+      </c>
+      <c r="B94" t="s">
+        <v>442</v>
+      </c>
+      <c r="C94" t="s">
+        <v>424</v>
+      </c>
+      <c r="D94" t="s">
+        <v>443</v>
+      </c>
+      <c r="E94" t="s">
         <v>444</v>
-      </c>
-      <c r="B94" t="s">
-        <v>445</v>
-      </c>
-      <c r="C94" t="s">
-        <v>427</v>
-      </c>
-      <c r="D94" t="s">
-        <v>446</v>
-      </c>
-      <c r="E94" t="s">
-        <v>447</v>
       </c>
       <c r="F94">
         <v>40.707189999999997</v>
@@ -6331,7 +6343,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="K94" t="s">
         <v>17</v>
@@ -6342,19 +6354,19 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
+        <v>446</v>
+      </c>
+      <c r="B95" t="s">
+        <v>447</v>
+      </c>
+      <c r="C95" t="s">
+        <v>424</v>
+      </c>
+      <c r="D95" t="s">
+        <v>448</v>
+      </c>
+      <c r="E95" t="s">
         <v>449</v>
-      </c>
-      <c r="B95" t="s">
-        <v>450</v>
-      </c>
-      <c r="C95" t="s">
-        <v>427</v>
-      </c>
-      <c r="D95" t="s">
-        <v>451</v>
-      </c>
-      <c r="E95" t="s">
-        <v>452</v>
       </c>
       <c r="F95">
         <v>40.626519999999999</v>
@@ -6366,7 +6378,7 @@
         <v>210</v>
       </c>
       <c r="I95" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="K95" t="s">
         <v>17</v>
@@ -6377,19 +6389,19 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>451</v>
+      </c>
+      <c r="B96" t="s">
+        <v>452</v>
+      </c>
+      <c r="C96" t="s">
+        <v>453</v>
+      </c>
+      <c r="D96" t="s">
+        <v>452</v>
+      </c>
+      <c r="E96" t="s">
         <v>454</v>
-      </c>
-      <c r="B96" t="s">
-        <v>455</v>
-      </c>
-      <c r="C96" t="s">
-        <v>456</v>
-      </c>
-      <c r="D96" t="s">
-        <v>455</v>
-      </c>
-      <c r="E96" t="s">
-        <v>457</v>
       </c>
       <c r="F96">
         <v>41.760359999999999</v>
@@ -6401,7 +6413,7 @@
         <v>267</v>
       </c>
       <c r="I96" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="K96" t="s">
         <v>17</v>
@@ -6412,19 +6424,19 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B97" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C97" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D97" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E97" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F97">
         <v>41.80104</v>
@@ -6436,7 +6448,7 @@
         <v>301</v>
       </c>
       <c r="I97" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K97" t="s">
         <v>17</v>
@@ -6447,19 +6459,19 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
+        <v>460</v>
+      </c>
+      <c r="B98" t="s">
+        <v>461</v>
+      </c>
+      <c r="C98" t="s">
+        <v>453</v>
+      </c>
+      <c r="D98" t="s">
+        <v>462</v>
+      </c>
+      <c r="E98" t="s">
         <v>463</v>
-      </c>
-      <c r="B98" t="s">
-        <v>464</v>
-      </c>
-      <c r="C98" t="s">
-        <v>456</v>
-      </c>
-      <c r="D98" t="s">
-        <v>465</v>
-      </c>
-      <c r="E98" t="s">
-        <v>466</v>
       </c>
       <c r="F98">
         <v>41.921729999999997</v>
@@ -6471,7 +6483,7 @@
         <v>366</v>
       </c>
       <c r="I98" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="K98" t="s">
         <v>17</v>
@@ -6482,19 +6494,19 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B99" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C99" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D99" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E99" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F99">
         <v>41.9178</v>
@@ -6506,7 +6518,7 @@
         <v>668</v>
       </c>
       <c r="I99" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="K99" t="s">
         <v>17</v>
@@ -6517,19 +6529,19 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B100" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C100" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D100" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E100" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F100">
         <v>41.876939999999998</v>
@@ -6541,7 +6553,7 @@
         <v>443</v>
       </c>
       <c r="I100" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="K100" t="s">
         <v>17</v>
@@ -6552,19 +6564,19 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
+        <v>473</v>
+      </c>
+      <c r="B101" t="s">
+        <v>474</v>
+      </c>
+      <c r="C101" t="s">
+        <v>453</v>
+      </c>
+      <c r="D101" t="s">
+        <v>475</v>
+      </c>
+      <c r="E101" t="s">
         <v>476</v>
-      </c>
-      <c r="B101" t="s">
-        <v>477</v>
-      </c>
-      <c r="C101" t="s">
-        <v>456</v>
-      </c>
-      <c r="D101" t="s">
-        <v>478</v>
-      </c>
-      <c r="E101" t="s">
-        <v>479</v>
       </c>
       <c r="F101">
         <v>41.87912</v>
@@ -6576,7 +6588,7 @@
         <v>576</v>
       </c>
       <c r="I101" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K101" t="s">
         <v>17</v>
@@ -6587,19 +6599,19 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B102" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C102" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D102" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E102" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F102">
         <v>41.784869999999998</v>
@@ -6611,7 +6623,7 @@
         <v>238</v>
       </c>
       <c r="I102" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="K102" t="s">
         <v>17</v>
@@ -6622,19 +6634,19 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B103" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C103" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D103" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E103" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F103">
         <v>41.995460000000001</v>
@@ -6646,7 +6658,7 @@
         <v>594</v>
       </c>
       <c r="I103" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="K103" t="s">
         <v>17</v>
@@ -6657,19 +6669,19 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
+        <v>486</v>
+      </c>
+      <c r="B104" t="s">
+        <v>487</v>
+      </c>
+      <c r="C104" t="s">
+        <v>488</v>
+      </c>
+      <c r="D104" t="s">
         <v>489</v>
       </c>
-      <c r="B104" t="s">
+      <c r="E104" t="s">
         <v>490</v>
-      </c>
-      <c r="C104" t="s">
-        <v>491</v>
-      </c>
-      <c r="D104" t="s">
-        <v>492</v>
-      </c>
-      <c r="E104" t="s">
-        <v>493</v>
       </c>
       <c r="F104">
         <v>42.042650000000002</v>
@@ -6681,7 +6693,7 @@
         <v>925</v>
       </c>
       <c r="I104" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="K104" t="s">
         <v>17</v>
@@ -6692,19 +6704,19 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B105" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C105" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D105" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E105" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F105">
         <v>42.11477</v>
@@ -6716,7 +6728,7 @@
         <v>684</v>
       </c>
       <c r="I105" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="K105" t="s">
         <v>17</v>
@@ -6727,19 +6739,19 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B106" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C106" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D106" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E106" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F106">
         <v>41.878129999999999</v>
@@ -6751,7 +6763,7 @@
         <v>816</v>
       </c>
       <c r="I106" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="K106" t="s">
         <v>17</v>
@@ -6762,19 +6774,19 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B107" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C107" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D107" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E107" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F107">
         <v>42.073979999999999</v>
@@ -6786,7 +6798,7 @@
         <v>626</v>
       </c>
       <c r="I107" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="K107" t="s">
         <v>17</v>
@@ -6797,19 +6809,19 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B108" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C108" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D108" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E108" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F108">
         <v>41.93497</v>
@@ -6821,7 +6833,7 @@
         <v>499</v>
       </c>
       <c r="I108" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="K108" t="s">
         <v>17</v>
@@ -6832,19 +6844,19 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B109" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C109" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D109" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E109" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F109">
         <v>41.84008</v>
@@ -6856,7 +6868,7 @@
         <v>953</v>
       </c>
       <c r="I109" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="K109" t="s">
         <v>17</v>
@@ -6867,19 +6879,19 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
+        <v>512</v>
+      </c>
+      <c r="B110" t="s">
+        <v>513</v>
+      </c>
+      <c r="C110" t="s">
+        <v>488</v>
+      </c>
+      <c r="D110" t="s">
+        <v>514</v>
+      </c>
+      <c r="E110" t="s">
         <v>515</v>
-      </c>
-      <c r="B110" t="s">
-        <v>516</v>
-      </c>
-      <c r="C110" t="s">
-        <v>491</v>
-      </c>
-      <c r="D110" t="s">
-        <v>517</v>
-      </c>
-      <c r="E110" t="s">
-        <v>518</v>
       </c>
       <c r="F110">
         <v>41.968670000000003</v>
@@ -6902,19 +6914,19 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
+        <v>516</v>
+      </c>
+      <c r="B111" t="s">
+        <v>517</v>
+      </c>
+      <c r="C111" t="s">
+        <v>518</v>
+      </c>
+      <c r="D111" t="s">
         <v>519</v>
       </c>
-      <c r="B111" t="s">
+      <c r="E111" t="s">
         <v>520</v>
-      </c>
-      <c r="C111" t="s">
-        <v>521</v>
-      </c>
-      <c r="D111" t="s">
-        <v>522</v>
-      </c>
-      <c r="E111" t="s">
-        <v>523</v>
       </c>
       <c r="F111">
         <v>42.139240000000001</v>
@@ -6926,7 +6938,7 @@
         <v>690</v>
       </c>
       <c r="I111" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="K111" t="s">
         <v>17</v>
@@ -6937,19 +6949,19 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
+        <v>522</v>
+      </c>
+      <c r="B112" t="s">
+        <v>523</v>
+      </c>
+      <c r="C112" t="s">
+        <v>518</v>
+      </c>
+      <c r="D112" t="s">
+        <v>524</v>
+      </c>
+      <c r="E112" t="s">
         <v>525</v>
-      </c>
-      <c r="B112" t="s">
-        <v>526</v>
-      </c>
-      <c r="C112" t="s">
-        <v>521</v>
-      </c>
-      <c r="D112" t="s">
-        <v>527</v>
-      </c>
-      <c r="E112" t="s">
-        <v>528</v>
       </c>
       <c r="F112">
         <v>42.243879999999997</v>
@@ -6961,7 +6973,7 @@
         <v>508</v>
       </c>
       <c r="I112" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="K112" t="s">
         <v>17</v>
@@ -6972,19 +6984,19 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
+        <v>527</v>
+      </c>
+      <c r="B113" t="s">
+        <v>528</v>
+      </c>
+      <c r="C113" t="s">
+        <v>518</v>
+      </c>
+      <c r="D113" t="s">
+        <v>529</v>
+      </c>
+      <c r="E113" t="s">
         <v>530</v>
-      </c>
-      <c r="B113" t="s">
-        <v>531</v>
-      </c>
-      <c r="C113" t="s">
-        <v>521</v>
-      </c>
-      <c r="D113" t="s">
-        <v>532</v>
-      </c>
-      <c r="E113" t="s">
-        <v>533</v>
       </c>
       <c r="F113">
         <v>42.051299999999998</v>
@@ -6996,7 +7008,7 @@
         <v>1572</v>
       </c>
       <c r="I113" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="K113" t="s">
         <v>17</v>
@@ -7007,19 +7019,19 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B114" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C114" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D114" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E114" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F114">
         <v>42.162520000000001</v>
@@ -7031,7 +7043,7 @@
         <v>473</v>
       </c>
       <c r="I114" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="K114" t="s">
         <v>17</v>
@@ -7042,19 +7054,19 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
+        <v>536</v>
+      </c>
+      <c r="B115" t="s">
+        <v>537</v>
+      </c>
+      <c r="C115" t="s">
+        <v>538</v>
+      </c>
+      <c r="D115" t="s">
         <v>539</v>
       </c>
-      <c r="B115" t="s">
+      <c r="E115" t="s">
         <v>540</v>
-      </c>
-      <c r="C115" t="s">
-        <v>541</v>
-      </c>
-      <c r="D115" t="s">
-        <v>542</v>
-      </c>
-      <c r="E115" t="s">
-        <v>543</v>
       </c>
       <c r="F115">
         <v>42.519390000000001</v>
@@ -7066,7 +7078,7 @@
         <v>2451</v>
       </c>
       <c r="I115" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="K115" t="s">
         <v>17</v>
@@ -7077,19 +7089,19 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
+        <v>542</v>
+      </c>
+      <c r="B116" t="s">
+        <v>543</v>
+      </c>
+      <c r="C116" t="s">
+        <v>538</v>
+      </c>
+      <c r="D116" t="s">
+        <v>544</v>
+      </c>
+      <c r="E116" t="s">
         <v>545</v>
-      </c>
-      <c r="B116" t="s">
-        <v>546</v>
-      </c>
-      <c r="C116" t="s">
-        <v>541</v>
-      </c>
-      <c r="D116" t="s">
-        <v>547</v>
-      </c>
-      <c r="E116" t="s">
-        <v>548</v>
       </c>
       <c r="F116">
         <v>42.750889999999998</v>
@@ -7101,7 +7113,7 @@
         <v>1693</v>
       </c>
       <c r="I116" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="K116" t="s">
         <v>17</v>
@@ -7112,19 +7124,19 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B117" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C117" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D117" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E117" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F117">
         <v>42.646909999999998</v>
@@ -7136,7 +7148,7 @@
         <v>2266</v>
       </c>
       <c r="I117" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="K117" t="s">
         <v>17</v>
@@ -7147,19 +7159,19 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
+        <v>551</v>
+      </c>
+      <c r="B118" t="s">
+        <v>552</v>
+      </c>
+      <c r="C118" t="s">
+        <v>538</v>
+      </c>
+      <c r="D118" t="s">
+        <v>553</v>
+      </c>
+      <c r="E118" t="s">
         <v>554</v>
-      </c>
-      <c r="B118" t="s">
-        <v>555</v>
-      </c>
-      <c r="C118" t="s">
-        <v>541</v>
-      </c>
-      <c r="D118" t="s">
-        <v>556</v>
-      </c>
-      <c r="E118" t="s">
-        <v>557</v>
       </c>
       <c r="F118">
         <v>42.534120000000001</v>
@@ -7171,7 +7183,7 @@
         <v>2519</v>
       </c>
       <c r="I118" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="K118" t="s">
         <v>17</v>
@@ -7182,19 +7194,19 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
+        <v>556</v>
+      </c>
+      <c r="B119" t="s">
+        <v>557</v>
+      </c>
+      <c r="C119" t="s">
+        <v>538</v>
+      </c>
+      <c r="D119" t="s">
+        <v>558</v>
+      </c>
+      <c r="E119" t="s">
         <v>559</v>
-      </c>
-      <c r="B119" t="s">
-        <v>560</v>
-      </c>
-      <c r="C119" t="s">
-        <v>541</v>
-      </c>
-      <c r="D119" t="s">
-        <v>561</v>
-      </c>
-      <c r="E119" t="s">
-        <v>562</v>
       </c>
       <c r="F119">
         <v>42.700290000000003</v>
@@ -7206,7 +7218,7 @@
         <v>2400</v>
       </c>
       <c r="I119" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="K119" t="s">
         <v>17</v>
@@ -7217,19 +7229,19 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B120" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C120" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D120" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="E120" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F120">
         <v>42.405329999999999</v>
@@ -7241,7 +7253,7 @@
         <v>679</v>
       </c>
       <c r="I120" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="K120" t="s">
         <v>17</v>
@@ -7252,19 +7264,19 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B121" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C121" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D121" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E121" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="F121">
         <v>42.518810000000002</v>
@@ -7276,7 +7288,7 @@
         <v>954</v>
       </c>
       <c r="I121" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="K121" t="s">
         <v>17</v>
@@ -7287,19 +7299,19 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
+        <v>569</v>
+      </c>
+      <c r="B122" t="s">
+        <v>570</v>
+      </c>
+      <c r="C122" t="s">
+        <v>571</v>
+      </c>
+      <c r="D122" t="s">
+        <v>570</v>
+      </c>
+      <c r="E122" t="s">
         <v>572</v>
-      </c>
-      <c r="B122" t="s">
-        <v>573</v>
-      </c>
-      <c r="C122" t="s">
-        <v>574</v>
-      </c>
-      <c r="D122" t="s">
-        <v>573</v>
-      </c>
-      <c r="E122" t="s">
-        <v>575</v>
       </c>
       <c r="F122">
         <v>41.656599999999997</v>
@@ -7311,7 +7323,7 @@
         <v>264</v>
       </c>
       <c r="I122" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="K122" t="s">
         <v>17</v>
@@ -7322,19 +7334,19 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
+        <v>574</v>
+      </c>
+      <c r="B123" t="s">
+        <v>575</v>
+      </c>
+      <c r="C123" t="s">
+        <v>571</v>
+      </c>
+      <c r="D123" t="s">
+        <v>576</v>
+      </c>
+      <c r="E123" t="s">
         <v>577</v>
-      </c>
-      <c r="B123" t="s">
-        <v>578</v>
-      </c>
-      <c r="C123" t="s">
-        <v>574</v>
-      </c>
-      <c r="D123" t="s">
-        <v>579</v>
-      </c>
-      <c r="E123" t="s">
-        <v>580</v>
       </c>
       <c r="F123">
         <v>41.672789999999999</v>
@@ -7346,7 +7358,7 @@
         <v>223</v>
       </c>
       <c r="I123" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="K123" t="s">
         <v>17</v>
@@ -7357,19 +7369,19 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B124" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C124" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D124" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E124" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="F124">
         <v>41.636420000000001</v>
@@ -7381,7 +7393,7 @@
         <v>261</v>
       </c>
       <c r="I124" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="K124" t="s">
         <v>17</v>
@@ -7392,19 +7404,19 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B125" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C125" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D125" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="E125" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="F125">
         <v>41.618169999999999</v>
@@ -7416,7 +7428,7 @@
         <v>247</v>
       </c>
       <c r="I125" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="K125" t="s">
         <v>17</v>
@@ -7427,19 +7439,19 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
+        <v>587</v>
+      </c>
+      <c r="B126" t="s">
+        <v>588</v>
+      </c>
+      <c r="C126" t="s">
+        <v>589</v>
+      </c>
+      <c r="D126" t="s">
+        <v>588</v>
+      </c>
+      <c r="E126" t="s">
         <v>590</v>
-      </c>
-      <c r="B126" t="s">
-        <v>591</v>
-      </c>
-      <c r="C126" t="s">
-        <v>592</v>
-      </c>
-      <c r="D126" t="s">
-        <v>591</v>
-      </c>
-      <c r="E126" t="s">
-        <v>593</v>
       </c>
       <c r="F126">
         <v>42.116529999999997</v>
@@ -7451,7 +7463,7 @@
         <v>176</v>
       </c>
       <c r="I126" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="K126" t="s">
         <v>17</v>
@@ -7462,19 +7474,19 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
+        <v>592</v>
+      </c>
+      <c r="B127" t="s">
+        <v>593</v>
+      </c>
+      <c r="C127" t="s">
+        <v>594</v>
+      </c>
+      <c r="D127" t="s">
         <v>595</v>
       </c>
-      <c r="B127" t="s">
+      <c r="E127" t="s">
         <v>596</v>
-      </c>
-      <c r="C127" t="s">
-        <v>597</v>
-      </c>
-      <c r="D127" t="s">
-        <v>598</v>
-      </c>
-      <c r="E127" t="s">
-        <v>599</v>
       </c>
       <c r="F127">
         <v>41.250790000000002</v>
@@ -7486,7 +7498,7 @@
         <v>500</v>
       </c>
       <c r="I127" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="K127" t="s">
         <v>17</v>
@@ -7497,19 +7509,19 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
+        <v>598</v>
+      </c>
+      <c r="B128" t="s">
+        <v>599</v>
+      </c>
+      <c r="C128" t="s">
+        <v>594</v>
+      </c>
+      <c r="D128" t="s">
+        <v>600</v>
+      </c>
+      <c r="E128" t="s">
         <v>601</v>
-      </c>
-      <c r="B128" t="s">
-        <v>602</v>
-      </c>
-      <c r="C128" t="s">
-        <v>597</v>
-      </c>
-      <c r="D128" t="s">
-        <v>603</v>
-      </c>
-      <c r="E128" t="s">
-        <v>604</v>
       </c>
       <c r="F128">
         <v>41.122300000000003</v>
@@ -7521,7 +7533,7 @@
         <v>141</v>
       </c>
       <c r="I128" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="K128" t="s">
         <v>17</v>
@@ -7532,19 +7544,19 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B129" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C129" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D129" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E129" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="F129">
         <v>41.153739999999999</v>
@@ -7556,7 +7568,7 @@
         <v>359</v>
       </c>
       <c r="I129" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="K129" t="s">
         <v>17</v>
@@ -7567,19 +7579,19 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B130" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C130" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D130" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E130" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="F130">
         <v>41.285209999999999</v>
@@ -7591,7 +7603,7 @@
         <v>404</v>
       </c>
       <c r="I130" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="K130" t="s">
         <v>17</v>
@@ -7602,19 +7614,19 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B131" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C131" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D131" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E131" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="F131">
         <v>41.216299999999997</v>
@@ -7626,7 +7638,7 @@
         <v>300</v>
       </c>
       <c r="I131" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="K131" t="s">
         <v>17</v>
@@ -7637,19 +7649,19 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B132" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C132" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D132" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="E132" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="F132">
         <v>41.32</v>
@@ -7661,7 +7673,7 @@
         <v>687</v>
       </c>
       <c r="I132" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K132" t="s">
         <v>17</v>
@@ -7672,19 +7684,19 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
+        <v>618</v>
+      </c>
+      <c r="B133" t="s">
+        <v>619</v>
+      </c>
+      <c r="C133" t="s">
+        <v>620</v>
+      </c>
+      <c r="D133" t="s">
+        <v>619</v>
+      </c>
+      <c r="E133" t="s">
         <v>621</v>
-      </c>
-      <c r="B133" t="s">
-        <v>622</v>
-      </c>
-      <c r="C133" t="s">
-        <v>623</v>
-      </c>
-      <c r="D133" t="s">
-        <v>622</v>
-      </c>
-      <c r="E133" t="s">
-        <v>624</v>
       </c>
       <c r="F133">
         <v>41.196399999999997</v>
@@ -7696,7 +7708,7 @@
         <v>256</v>
       </c>
       <c r="I133" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="K133" t="s">
         <v>17</v>
@@ -7707,19 +7719,19 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B134" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C134" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D134" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E134" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="F134">
         <v>41.062890000000003</v>
@@ -7731,7 +7743,7 @@
         <v>32</v>
       </c>
       <c r="I134" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="K134" t="s">
         <v>17</v>
@@ -7742,19 +7754,19 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
+        <v>627</v>
+      </c>
+      <c r="B135" t="s">
+        <v>628</v>
+      </c>
+      <c r="C135" t="s">
+        <v>620</v>
+      </c>
+      <c r="D135" t="s">
+        <v>629</v>
+      </c>
+      <c r="E135" t="s">
         <v>630</v>
-      </c>
-      <c r="B135" t="s">
-        <v>631</v>
-      </c>
-      <c r="C135" t="s">
-        <v>623</v>
-      </c>
-      <c r="D135" t="s">
-        <v>632</v>
-      </c>
-      <c r="E135" t="s">
-        <v>633</v>
       </c>
       <c r="F135">
         <v>41.244149999999998</v>
@@ -7766,7 +7778,7 @@
         <v>69</v>
       </c>
       <c r="I135" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="K135" t="s">
         <v>17</v>
@@ -7777,19 +7789,19 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B136" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C136" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D136" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E136" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F136">
         <v>41.043430000000001</v>
@@ -7801,7 +7813,7 @@
         <v>317</v>
       </c>
       <c r="I136" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="K136" t="s">
         <v>17</v>
@@ -7812,19 +7824,19 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B137" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C137" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D137" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E137" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F137">
         <v>41.184989999999999</v>
@@ -7847,19 +7859,19 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
+        <v>639</v>
+      </c>
+      <c r="B138" t="s">
+        <v>640</v>
+      </c>
+      <c r="C138" t="s">
+        <v>641</v>
+      </c>
+      <c r="D138" t="s">
         <v>642</v>
       </c>
-      <c r="B138" t="s">
+      <c r="E138" t="s">
         <v>643</v>
-      </c>
-      <c r="C138" t="s">
-        <v>644</v>
-      </c>
-      <c r="D138" t="s">
-        <v>645</v>
-      </c>
-      <c r="E138" t="s">
-        <v>646</v>
       </c>
       <c r="F138">
         <v>42.37717</v>
@@ -7871,7 +7883,7 @@
         <v>1405</v>
       </c>
       <c r="I138" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="K138" t="s">
         <v>17</v>
@@ -7882,19 +7894,19 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
+        <v>645</v>
+      </c>
+      <c r="B139" t="s">
+        <v>646</v>
+      </c>
+      <c r="C139" t="s">
+        <v>641</v>
+      </c>
+      <c r="D139" t="s">
+        <v>647</v>
+      </c>
+      <c r="E139" t="s">
         <v>648</v>
-      </c>
-      <c r="B139" t="s">
-        <v>649</v>
-      </c>
-      <c r="C139" t="s">
-        <v>644</v>
-      </c>
-      <c r="D139" t="s">
-        <v>650</v>
-      </c>
-      <c r="E139" t="s">
-        <v>651</v>
       </c>
       <c r="F139">
         <v>42.398479999999999</v>
@@ -7906,7 +7918,7 @@
         <v>1971</v>
       </c>
       <c r="I139" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="K139" t="s">
         <v>17</v>
@@ -7917,19 +7929,19 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B140" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C140" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D140" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="E140" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F140">
         <v>42.221890000000002</v>
@@ -7941,7 +7953,7 @@
         <v>730</v>
       </c>
       <c r="I140" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="K140" t="s">
         <v>17</v>
@@ -7952,19 +7964,19 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B141" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C141" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D141" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="E141" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="F141">
         <v>42.258389999999999</v>
@@ -7976,7 +7988,7 @@
         <v>852</v>
       </c>
       <c r="I141" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="K141" t="s">
         <v>17</v>
@@ -7987,19 +7999,19 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
+        <v>658</v>
+      </c>
+      <c r="B142" t="s">
+        <v>659</v>
+      </c>
+      <c r="C142" t="s">
+        <v>641</v>
+      </c>
+      <c r="D142" t="s">
+        <v>660</v>
+      </c>
+      <c r="E142" t="s">
         <v>661</v>
-      </c>
-      <c r="B142" t="s">
-        <v>662</v>
-      </c>
-      <c r="C142" t="s">
-        <v>644</v>
-      </c>
-      <c r="D142" t="s">
-        <v>663</v>
-      </c>
-      <c r="E142" t="s">
-        <v>664</v>
       </c>
       <c r="F142">
         <v>42.421019999999999</v>
@@ -8011,7 +8023,7 @@
         <v>2413</v>
       </c>
       <c r="I142" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="K142" t="s">
         <v>17</v>
@@ -8022,19 +8034,19 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
+        <v>663</v>
+      </c>
+      <c r="B143" t="s">
+        <v>664</v>
+      </c>
+      <c r="C143" t="s">
+        <v>665</v>
+      </c>
+      <c r="D143" t="s">
+        <v>664</v>
+      </c>
+      <c r="E143" t="s">
         <v>666</v>
-      </c>
-      <c r="B143" t="s">
-        <v>667</v>
-      </c>
-      <c r="C143" t="s">
-        <v>668</v>
-      </c>
-      <c r="D143" t="s">
-        <v>667</v>
-      </c>
-      <c r="E143" t="s">
-        <v>669</v>
       </c>
       <c r="F143">
         <v>41.675550000000001</v>
@@ -8046,7 +8058,7 @@
         <v>554</v>
       </c>
       <c r="I143" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="K143" t="s">
         <v>17</v>
@@ -8057,19 +8069,19 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
+        <v>668</v>
+      </c>
+      <c r="B144" t="s">
+        <v>669</v>
+      </c>
+      <c r="C144" t="s">
+        <v>665</v>
+      </c>
+      <c r="D144" t="s">
+        <v>670</v>
+      </c>
+      <c r="E144" t="s">
         <v>671</v>
-      </c>
-      <c r="B144" t="s">
-        <v>672</v>
-      </c>
-      <c r="C144" t="s">
-        <v>668</v>
-      </c>
-      <c r="D144" t="s">
-        <v>673</v>
-      </c>
-      <c r="E144" t="s">
-        <v>674</v>
       </c>
       <c r="F144">
         <v>41.689390000000003</v>
@@ -8081,7 +8093,7 @@
         <v>429</v>
       </c>
       <c r="I144" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="K144" t="s">
         <v>17</v>
@@ -8092,19 +8104,19 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B145" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C145" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D145" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E145" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="F145">
         <v>41.794089999999997</v>
@@ -8116,7 +8128,7 @@
         <v>513</v>
       </c>
       <c r="I145" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="K145" t="s">
         <v>17</v>
@@ -8127,19 +8139,19 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
+        <v>677</v>
+      </c>
+      <c r="B146" t="s">
+        <v>678</v>
+      </c>
+      <c r="C146" t="s">
+        <v>679</v>
+      </c>
+      <c r="D146" t="s">
+        <v>678</v>
+      </c>
+      <c r="E146" t="s">
         <v>680</v>
-      </c>
-      <c r="B146" t="s">
-        <v>681</v>
-      </c>
-      <c r="C146" t="s">
-        <v>682</v>
-      </c>
-      <c r="D146" t="s">
-        <v>681</v>
-      </c>
-      <c r="E146" t="s">
-        <v>683</v>
       </c>
       <c r="F146">
         <v>41.565089999999998</v>
@@ -8151,7 +8163,7 @@
         <v>122</v>
       </c>
       <c r="I146" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="K146" t="s">
         <v>17</v>
@@ -8162,19 +8174,19 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B147" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C147" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D147" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E147" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="F147">
         <v>41.819490000000002</v>
@@ -8186,7 +8198,7 @@
         <v>268</v>
       </c>
       <c r="I147" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="K147" t="s">
         <v>17</v>
@@ -8197,19 +8209,19 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B148" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C148" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D148" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="E148" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="F148">
         <v>41.742809999999999</v>
@@ -8221,7 +8233,7 @@
         <v>370</v>
       </c>
       <c r="I148" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="K148" t="s">
         <v>17</v>
@@ -8232,19 +8244,19 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
+        <v>690</v>
+      </c>
+      <c r="B149" t="s">
+        <v>691</v>
+      </c>
+      <c r="C149" t="s">
+        <v>679</v>
+      </c>
+      <c r="D149" t="s">
+        <v>692</v>
+      </c>
+      <c r="E149" t="s">
         <v>693</v>
-      </c>
-      <c r="B149" t="s">
-        <v>694</v>
-      </c>
-      <c r="C149" t="s">
-        <v>682</v>
-      </c>
-      <c r="D149" t="s">
-        <v>695</v>
-      </c>
-      <c r="E149" t="s">
-        <v>696</v>
       </c>
       <c r="F149">
         <v>41.595219999999998</v>
@@ -8256,7 +8268,7 @@
         <v>235</v>
       </c>
       <c r="I149" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="K149" t="s">
         <v>17</v>
@@ -8267,19 +8279,19 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
+        <v>695</v>
+      </c>
+      <c r="B150" t="s">
+        <v>696</v>
+      </c>
+      <c r="C150" t="s">
+        <v>679</v>
+      </c>
+      <c r="D150" t="s">
+        <v>697</v>
+      </c>
+      <c r="E150" t="s">
         <v>698</v>
-      </c>
-      <c r="B150" t="s">
-        <v>699</v>
-      </c>
-      <c r="C150" t="s">
-        <v>682</v>
-      </c>
-      <c r="D150" t="s">
-        <v>700</v>
-      </c>
-      <c r="E150" t="s">
-        <v>701</v>
       </c>
       <c r="F150">
         <v>41.658250000000002</v>
@@ -8291,7 +8303,7 @@
         <v>260</v>
       </c>
       <c r="I150" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="K150" t="s">
         <v>17</v>
@@ -8302,19 +8314,19 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
+        <v>700</v>
+      </c>
+      <c r="B151" t="s">
+        <v>701</v>
+      </c>
+      <c r="C151" t="s">
+        <v>679</v>
+      </c>
+      <c r="D151" t="s">
+        <v>702</v>
+      </c>
+      <c r="E151" t="s">
         <v>703</v>
-      </c>
-      <c r="B151" t="s">
-        <v>704</v>
-      </c>
-      <c r="C151" t="s">
-        <v>682</v>
-      </c>
-      <c r="D151" t="s">
-        <v>705</v>
-      </c>
-      <c r="E151" t="s">
-        <v>706</v>
       </c>
       <c r="F151">
         <v>41.683280000000003</v>
@@ -8326,7 +8338,7 @@
         <v>286</v>
       </c>
       <c r="I151" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="K151" t="s">
         <v>17</v>
@@ -8337,19 +8349,19 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B152" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C152" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D152" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E152" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="F152">
         <v>41.584490000000002</v>
@@ -8361,7 +8373,7 @@
         <v>170</v>
       </c>
       <c r="I152" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="K152" t="s">
         <v>17</v>
@@ -8372,19 +8384,19 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B153" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C153" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D153" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="E153" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="F153">
         <v>41.357410000000002</v>
@@ -8396,7 +8408,7 @@
         <v>350</v>
       </c>
       <c r="I153" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="K153" t="s">
         <v>17</v>
@@ -8407,19 +8419,19 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B154" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C154" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D154" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E154" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="F154">
         <v>41.463790000000003</v>
@@ -8431,7 +8443,7 @@
         <v>89</v>
       </c>
       <c r="I154" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="K154" t="s">
         <v>17</v>
@@ -8442,19 +8454,19 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B155" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C155" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D155" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E155" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="F155">
         <v>41.519089999999998</v>
@@ -8466,7 +8478,7 @@
         <v>215</v>
       </c>
       <c r="I155" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="K155" t="s">
         <v>17</v>
@@ -8477,19 +8489,19 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B156" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C156" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D156" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="E156" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="F156">
         <v>41.714500000000001</v>
@@ -8501,7 +8513,7 @@
         <v>222</v>
       </c>
       <c r="I156" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="K156" t="s">
         <v>17</v>
@@ -8512,19 +8524,19 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
+        <v>724</v>
+      </c>
+      <c r="B157" t="s">
+        <v>725</v>
+      </c>
+      <c r="C157" t="s">
+        <v>726</v>
+      </c>
+      <c r="D157" t="s">
+        <v>725</v>
+      </c>
+      <c r="E157" t="s">
         <v>727</v>
-      </c>
-      <c r="B157" t="s">
-        <v>728</v>
-      </c>
-      <c r="C157" t="s">
-        <v>729</v>
-      </c>
-      <c r="D157" t="s">
-        <v>728</v>
-      </c>
-      <c r="E157" t="s">
-        <v>730</v>
       </c>
       <c r="F157">
         <v>41.960949999999997</v>
@@ -8547,19 +8559,19 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B158" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C158" t="s">
+        <v>726</v>
+      </c>
+      <c r="D158" t="s">
         <v>729</v>
       </c>
-      <c r="D158" t="s">
-        <v>732</v>
-      </c>
       <c r="E158" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="F158">
         <v>41.738939999999999</v>
@@ -8582,19 +8594,19 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B159" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C159" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D159" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="E159" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="F159">
         <v>41.864890000000003</v>
@@ -8606,7 +8618,7 @@
         <v>162</v>
       </c>
       <c r="I159" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="K159" t="s">
         <v>17</v>
@@ -8617,19 +8629,19 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
+        <v>735</v>
+      </c>
+      <c r="B160" t="s">
+        <v>736</v>
+      </c>
+      <c r="C160" t="s">
+        <v>737</v>
+      </c>
+      <c r="D160" t="s">
         <v>738</v>
       </c>
-      <c r="B160" t="s">
+      <c r="E160" t="s">
         <v>739</v>
-      </c>
-      <c r="C160" t="s">
-        <v>740</v>
-      </c>
-      <c r="D160" t="s">
-        <v>741</v>
-      </c>
-      <c r="E160" t="s">
-        <v>742</v>
       </c>
       <c r="F160">
         <v>42.135980000000004</v>
@@ -8641,7 +8653,7 @@
         <v>845</v>
       </c>
       <c r="I160" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="K160" t="s">
         <v>17</v>
@@ -8652,19 +8664,19 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
+        <v>741</v>
+      </c>
+      <c r="B161" t="s">
+        <v>742</v>
+      </c>
+      <c r="C161" t="s">
+        <v>737</v>
+      </c>
+      <c r="D161" t="s">
+        <v>743</v>
+      </c>
+      <c r="E161" t="s">
         <v>744</v>
-      </c>
-      <c r="B161" t="s">
-        <v>745</v>
-      </c>
-      <c r="C161" t="s">
-        <v>740</v>
-      </c>
-      <c r="D161" t="s">
-        <v>746</v>
-      </c>
-      <c r="E161" t="s">
-        <v>747</v>
       </c>
       <c r="F161">
         <v>42.19088</v>
@@ -8676,7 +8688,7 @@
         <v>2290</v>
       </c>
       <c r="I161" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="K161" t="s">
         <v>17</v>
@@ -8687,19 +8699,19 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B162" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C162" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="D162" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="E162" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="F162">
         <v>42.087449999999997</v>
@@ -8711,7 +8723,7 @@
         <v>785</v>
       </c>
       <c r="I162" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="K162" t="s">
         <v>17</v>
@@ -8722,19 +8734,19 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="B163" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C163" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="D163" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="E163" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="F163">
         <v>42.007069999999999</v>
@@ -8746,7 +8758,7 @@
         <v>545</v>
       </c>
       <c r="I163" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="K163" t="s">
         <v>17</v>
@@ -8757,19 +8769,19 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B164" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C164" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="D164" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="E164" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="F164">
         <v>41.804830000000003</v>
@@ -8781,7 +8793,7 @@
         <v>659</v>
       </c>
       <c r="I164" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="K164" t="s">
         <v>17</v>
@@ -8792,19 +8804,19 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B165" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C165" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="D165" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="E165" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="F165">
         <v>41.987659999999998</v>
@@ -8816,7 +8828,7 @@
         <v>691</v>
       </c>
       <c r="I165" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K165" t="s">
         <v>17</v>
@@ -8827,19 +8839,19 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
+        <v>761</v>
+      </c>
+      <c r="B166" t="s">
+        <v>762</v>
+      </c>
+      <c r="C166" t="s">
+        <v>763</v>
+      </c>
+      <c r="D166" t="s">
+        <v>762</v>
+      </c>
+      <c r="E166" t="s">
         <v>764</v>
-      </c>
-      <c r="B166" t="s">
-        <v>765</v>
-      </c>
-      <c r="C166" t="s">
-        <v>766</v>
-      </c>
-      <c r="D166" t="s">
-        <v>765</v>
-      </c>
-      <c r="E166" t="s">
-        <v>767</v>
       </c>
       <c r="F166">
         <v>41.171300000000002</v>
@@ -8851,7 +8863,7 @@
         <v>112</v>
       </c>
       <c r="I166" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="K166" t="s">
         <v>17</v>
@@ -8862,19 +8874,19 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
+        <v>766</v>
+      </c>
+      <c r="B167" t="s">
+        <v>767</v>
+      </c>
+      <c r="C167" t="s">
+        <v>763</v>
+      </c>
+      <c r="D167" t="s">
+        <v>768</v>
+      </c>
+      <c r="E167" t="s">
         <v>769</v>
-      </c>
-      <c r="B167" t="s">
-        <v>770</v>
-      </c>
-      <c r="C167" t="s">
-        <v>766</v>
-      </c>
-      <c r="D167" t="s">
-        <v>771</v>
-      </c>
-      <c r="E167" t="s">
-        <v>772</v>
       </c>
       <c r="F167">
         <v>41.103929999999998</v>
@@ -8886,7 +8898,7 @@
         <v>5</v>
       </c>
       <c r="I167" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="K167" t="s">
         <v>17</v>
@@ -8897,19 +8909,19 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B168" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C168" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="D168" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="E168" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="F168">
         <v>41.146769999999997</v>
@@ -8921,7 +8933,7 @@
         <v>2</v>
       </c>
       <c r="I168" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="K168" t="s">
         <v>17</v>
@@ -8932,19 +8944,19 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
+        <v>775</v>
+      </c>
+      <c r="B169" t="s">
+        <v>776</v>
+      </c>
+      <c r="C169" t="s">
+        <v>777</v>
+      </c>
+      <c r="D169" t="s">
+        <v>776</v>
+      </c>
+      <c r="E169" t="s">
         <v>778</v>
-      </c>
-      <c r="B169" t="s">
-        <v>779</v>
-      </c>
-      <c r="C169" t="s">
-        <v>780</v>
-      </c>
-      <c r="D169" t="s">
-        <v>779</v>
-      </c>
-      <c r="E169" t="s">
-        <v>781</v>
       </c>
       <c r="F169">
         <v>41.083069999999999</v>
@@ -8956,7 +8968,7 @@
         <v>400</v>
       </c>
       <c r="I169" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="K169" t="s">
         <v>17</v>
@@ -8967,19 +8979,19 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B170" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C170" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D170" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="E170" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="F170">
         <v>41.065640000000002</v>
@@ -8991,7 +9003,7 @@
         <v>350</v>
       </c>
       <c r="I170" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="K170" t="s">
         <v>17</v>
@@ -9002,19 +9014,19 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B171" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C171" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D171" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="E171" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="F171">
         <v>40.951340000000002</v>
@@ -9026,7 +9038,7 @@
         <v>515</v>
       </c>
       <c r="I171" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="K171" t="s">
         <v>17</v>
@@ -9037,19 +9049,19 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
+        <v>788</v>
+      </c>
+      <c r="B172" t="s">
+        <v>789</v>
+      </c>
+      <c r="C172" t="s">
+        <v>790</v>
+      </c>
+      <c r="D172" t="s">
         <v>791</v>
       </c>
-      <c r="B172" t="s">
+      <c r="E172" t="s">
         <v>792</v>
-      </c>
-      <c r="C172" t="s">
-        <v>793</v>
-      </c>
-      <c r="D172" t="s">
-        <v>794</v>
-      </c>
-      <c r="E172" t="s">
-        <v>795</v>
       </c>
       <c r="F172">
         <v>41.68835</v>
@@ -9061,7 +9073,7 @@
         <v>291</v>
       </c>
       <c r="I172" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="K172" t="s">
         <v>17</v>
@@ -9072,19 +9084,19 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B173" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C173" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="D173" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="E173" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="F173">
         <v>41.572360000000003</v>
@@ -9096,7 +9108,7 @@
         <v>413</v>
       </c>
       <c r="I173" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="K173" t="s">
         <v>17</v>
@@ -9107,19 +9119,19 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B174" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C174" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="D174" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="E174" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="F174">
         <v>41.66695</v>
@@ -9131,7 +9143,7 @@
         <v>427</v>
       </c>
       <c r="I174" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="K174" t="s">
         <v>17</v>
@@ -9142,19 +9154,19 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
+        <v>802</v>
+      </c>
+      <c r="B175" t="s">
+        <v>803</v>
+      </c>
+      <c r="C175" t="s">
+        <v>804</v>
+      </c>
+      <c r="D175" t="s">
         <v>805</v>
       </c>
-      <c r="B175" t="s">
+      <c r="E175" t="s">
         <v>806</v>
-      </c>
-      <c r="C175" t="s">
-        <v>807</v>
-      </c>
-      <c r="D175" t="s">
-        <v>808</v>
-      </c>
-      <c r="E175" t="s">
-        <v>809</v>
       </c>
       <c r="F175">
         <v>42.770110000000003</v>
@@ -9166,7 +9178,7 @@
         <v>2228</v>
       </c>
       <c r="I175" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="K175" t="s">
         <v>17</v>
@@ -9177,19 +9189,19 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
+        <v>808</v>
+      </c>
+      <c r="B176" t="s">
+        <v>809</v>
+      </c>
+      <c r="C176" t="s">
+        <v>804</v>
+      </c>
+      <c r="D176" t="s">
+        <v>810</v>
+      </c>
+      <c r="E176" t="s">
         <v>811</v>
-      </c>
-      <c r="B176" t="s">
-        <v>812</v>
-      </c>
-      <c r="C176" t="s">
-        <v>807</v>
-      </c>
-      <c r="D176" t="s">
-        <v>813</v>
-      </c>
-      <c r="E176" t="s">
-        <v>814</v>
       </c>
       <c r="F176">
         <v>42.638350000000003</v>
@@ -9201,7 +9213,7 @@
         <v>2247</v>
       </c>
       <c r="I176" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="K176" t="s">
         <v>17</v>
@@ -9212,19 +9224,19 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B177" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C177" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D177" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E177" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="F177">
         <v>42.697369999999999</v>
@@ -9236,7 +9248,7 @@
         <v>1027</v>
       </c>
       <c r="I177" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="K177" t="s">
         <v>17</v>
@@ -9247,19 +9259,19 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
+        <v>817</v>
+      </c>
+      <c r="B178" t="s">
+        <v>818</v>
+      </c>
+      <c r="C178" t="s">
+        <v>819</v>
+      </c>
+      <c r="D178" t="s">
+        <v>818</v>
+      </c>
+      <c r="E178" t="s">
         <v>820</v>
-      </c>
-      <c r="B178" t="s">
-        <v>821</v>
-      </c>
-      <c r="C178" t="s">
-        <v>822</v>
-      </c>
-      <c r="D178" t="s">
-        <v>821</v>
-      </c>
-      <c r="E178" t="s">
-        <v>823</v>
       </c>
       <c r="F178">
         <v>41.478920000000002</v>
@@ -9271,7 +9283,7 @@
         <v>147</v>
       </c>
       <c r="I178" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="K178" t="s">
         <v>17</v>
@@ -9282,19 +9294,19 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B179" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C179" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="D179" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="E179" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="F179">
         <v>41.632860000000001</v>
@@ -9306,7 +9318,7 @@
         <v>421</v>
       </c>
       <c r="I179" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="K179" t="s">
         <v>17</v>
@@ -9317,19 +9329,19 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
+        <v>826</v>
+      </c>
+      <c r="B180" t="s">
+        <v>827</v>
+      </c>
+      <c r="C180" t="s">
+        <v>819</v>
+      </c>
+      <c r="D180" t="s">
+        <v>828</v>
+      </c>
+      <c r="E180" t="s">
         <v>829</v>
-      </c>
-      <c r="B180" t="s">
-        <v>830</v>
-      </c>
-      <c r="C180" t="s">
-        <v>822</v>
-      </c>
-      <c r="D180" t="s">
-        <v>831</v>
-      </c>
-      <c r="E180" t="s">
-        <v>832</v>
       </c>
       <c r="F180">
         <v>41.56568</v>
@@ -9341,7 +9353,7 @@
         <v>258</v>
       </c>
       <c r="I180" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="K180" t="s">
         <v>17</v>
@@ -9352,19 +9364,19 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
+        <v>831</v>
+      </c>
+      <c r="B181" t="s">
+        <v>832</v>
+      </c>
+      <c r="C181" t="s">
+        <v>819</v>
+      </c>
+      <c r="D181" t="s">
+        <v>833</v>
+      </c>
+      <c r="E181" t="s">
         <v>834</v>
-      </c>
-      <c r="B181" t="s">
-        <v>835</v>
-      </c>
-      <c r="C181" t="s">
-        <v>822</v>
-      </c>
-      <c r="D181" t="s">
-        <v>836</v>
-      </c>
-      <c r="E181" t="s">
-        <v>837</v>
       </c>
       <c r="F181">
         <v>41.483110000000003</v>
@@ -9376,7 +9388,7 @@
         <v>158</v>
       </c>
       <c r="I181" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="K181" t="s">
         <v>17</v>
@@ -9387,19 +9399,19 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B182" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C182" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="D182" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="E182" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="F182">
         <v>41.681289999999997</v>
@@ -9422,19 +9434,19 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B183" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C183" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="D183" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="E183" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="F183">
         <v>41.553609999999999</v>
@@ -9446,7 +9458,7 @@
         <v>313</v>
       </c>
       <c r="I183" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="K183" t="s">
         <v>17</v>
@@ -9457,19 +9469,19 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B184" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C184" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="D184" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="E184" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="F184">
         <v>41.59252</v>
@@ -9481,7 +9493,7 @@
         <v>343</v>
       </c>
       <c r="I184" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="K184" t="s">
         <v>17</v>
@@ -9492,19 +9504,19 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
+        <v>847</v>
+      </c>
+      <c r="B185" t="s">
+        <v>848</v>
+      </c>
+      <c r="C185" t="s">
+        <v>849</v>
+      </c>
+      <c r="D185" t="s">
+        <v>848</v>
+      </c>
+      <c r="E185" t="s">
         <v>850</v>
-      </c>
-      <c r="B185" t="s">
-        <v>851</v>
-      </c>
-      <c r="C185" t="s">
-        <v>852</v>
-      </c>
-      <c r="D185" t="s">
-        <v>851</v>
-      </c>
-      <c r="E185" t="s">
-        <v>853</v>
       </c>
       <c r="F185">
         <v>41.612650000000002</v>
@@ -9516,7 +9528,7 @@
         <v>176</v>
       </c>
       <c r="I185" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="K185" t="s">
         <v>17</v>
@@ -9527,19 +9539,19 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
+        <v>852</v>
+      </c>
+      <c r="B186" t="s">
+        <v>853</v>
+      </c>
+      <c r="C186" t="s">
+        <v>849</v>
+      </c>
+      <c r="D186" t="s">
+        <v>854</v>
+      </c>
+      <c r="E186" t="s">
         <v>855</v>
-      </c>
-      <c r="B186" t="s">
-        <v>856</v>
-      </c>
-      <c r="C186" t="s">
-        <v>852</v>
-      </c>
-      <c r="D186" t="s">
-        <v>857</v>
-      </c>
-      <c r="E186" t="s">
-        <v>858</v>
       </c>
       <c r="F186">
         <v>41.773620000000001</v>
@@ -9551,7 +9563,7 @@
         <v>1668</v>
       </c>
       <c r="I186" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="K186" t="s">
         <v>17</v>
@@ -9562,19 +9574,19 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B187" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C187" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="D187" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="E187" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="F187">
         <v>41.609220000000001</v>
@@ -9586,7 +9598,7 @@
         <v>210</v>
       </c>
       <c r="I187" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="K187" t="s">
         <v>17</v>
@@ -9597,19 +9609,19 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
+        <v>861</v>
+      </c>
+      <c r="B188" t="s">
+        <v>862</v>
+      </c>
+      <c r="C188" t="s">
+        <v>849</v>
+      </c>
+      <c r="D188" t="s">
+        <v>863</v>
+      </c>
+      <c r="E188" t="s">
         <v>864</v>
-      </c>
-      <c r="B188" t="s">
-        <v>865</v>
-      </c>
-      <c r="C188" t="s">
-        <v>852</v>
-      </c>
-      <c r="D188" t="s">
-        <v>866</v>
-      </c>
-      <c r="E188" t="s">
-        <v>867</v>
       </c>
       <c r="F188">
         <v>41.618650000000002</v>
@@ -9632,19 +9644,19 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="B189" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C189" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="D189" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="E189" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="F189">
         <v>41.567340000000002</v>
@@ -9656,7 +9668,7 @@
         <v>123</v>
       </c>
       <c r="I189" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="K189" t="s">
         <v>17</v>
@@ -9667,19 +9679,19 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
+        <v>869</v>
+      </c>
+      <c r="B190" t="s">
+        <v>870</v>
+      </c>
+      <c r="C190" t="s">
+        <v>849</v>
+      </c>
+      <c r="D190" t="s">
+        <v>871</v>
+      </c>
+      <c r="E190" t="s">
         <v>872</v>
-      </c>
-      <c r="B190" t="s">
-        <v>873</v>
-      </c>
-      <c r="C190" t="s">
-        <v>852</v>
-      </c>
-      <c r="D190" t="s">
-        <v>874</v>
-      </c>
-      <c r="E190" t="s">
-        <v>875</v>
       </c>
       <c r="F190">
         <v>41.747610000000002</v>
@@ -9691,7 +9703,7 @@
         <v>1030</v>
       </c>
       <c r="I190" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="K190" t="s">
         <v>17</v>
@@ -9715,15 +9727,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B2">
         <v>11</v>
@@ -9739,7 +9751,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -9747,7 +9759,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B5">
         <v>7</v>
@@ -9755,7 +9767,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -9763,7 +9775,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -9771,7 +9783,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -9787,7 +9799,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -9795,7 +9807,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -9803,7 +9815,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -9819,7 +9831,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -9827,7 +9839,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -9867,7 +9879,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -9875,7 +9887,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -9899,7 +9911,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -9907,7 +9919,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -9915,7 +9927,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -9923,7 +9935,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -9931,7 +9943,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B28">
         <v>4</v>
@@ -9939,7 +9951,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -9947,7 +9959,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -9955,7 +9967,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -9963,7 +9975,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -9971,7 +9983,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -9979,7 +9991,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -9987,7 +9999,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -9995,7 +10007,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -10003,7 +10015,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -10027,7 +10039,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -10035,7 +10047,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -10043,7 +10055,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -10051,7 +10063,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -10072,10 +10084,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
